--- a/data_source/liste_datasets.xlsx
+++ b/data_source/liste_datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="24915" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="24915" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REC" sheetId="1" r:id="rId1"/>
@@ -3946,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,6 +4186,9 @@
       </c>
       <c r="G9">
         <v>1835</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1826</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6464,7 +6467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6521,7 @@
         <v>89</v>
       </c>
       <c r="F2" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A2&amp;"/"&amp;B2&amp;"_"&amp;E2&amp;".dbf"</f>
+        <f t="shared" ref="F2:F30" si="0">"https://www.insee.fr/fr/statistiques/fichier/"&amp;A2&amp;"/"&amp;B2&amp;"_"&amp;E2&amp;".dbf"</f>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T18.dbf</v>
       </c>
       <c r="G2">
@@ -6542,7 +6545,7 @@
         <v>95</v>
       </c>
       <c r="F3" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A3&amp;"/"&amp;B3&amp;"_"&amp;E3&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T24.dbf</v>
       </c>
       <c r="G3">
@@ -6569,7 +6572,7 @@
         <v>534</v>
       </c>
       <c r="F4" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A4&amp;"/"&amp;B4&amp;"_"&amp;E4&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T31.dbf</v>
       </c>
       <c r="G4">
@@ -6593,7 +6596,7 @@
         <v>535</v>
       </c>
       <c r="F5" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A5&amp;"/"&amp;B5&amp;"_"&amp;E5&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T32.dbf</v>
       </c>
       <c r="G5">
@@ -6617,7 +6620,7 @@
         <v>536</v>
       </c>
       <c r="F6" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A6&amp;"/"&amp;B6&amp;"_"&amp;E6&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T33.dbf</v>
       </c>
       <c r="G6">
@@ -6641,7 +6644,7 @@
         <v>537</v>
       </c>
       <c r="F7" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A7&amp;"/"&amp;B7&amp;"_"&amp;E7&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T34.dbf</v>
       </c>
       <c r="G7">
@@ -6665,7 +6668,7 @@
         <v>538</v>
       </c>
       <c r="F8" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A8&amp;"/"&amp;B8&amp;"_"&amp;E8&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T35.dbf</v>
       </c>
       <c r="G8">
@@ -6689,7 +6692,7 @@
         <v>539</v>
       </c>
       <c r="F9" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A9&amp;"/"&amp;B9&amp;"_"&amp;E9&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T36.dbf</v>
       </c>
       <c r="G9">
@@ -6713,7 +6716,7 @@
         <v>540</v>
       </c>
       <c r="F10" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A10&amp;"/"&amp;B10&amp;"_"&amp;E10&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T37.dbf</v>
       </c>
       <c r="G10">
@@ -6737,7 +6740,7 @@
         <v>541</v>
       </c>
       <c r="F11" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A11&amp;"/"&amp;B11&amp;"_"&amp;E11&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T38.dbf</v>
       </c>
       <c r="G11">
@@ -6761,7 +6764,7 @@
         <v>542</v>
       </c>
       <c r="F12" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A12&amp;"/"&amp;B12&amp;"_"&amp;E12&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T51.dbf</v>
       </c>
       <c r="G12">
@@ -6788,7 +6791,7 @@
         <v>543</v>
       </c>
       <c r="F13" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A13&amp;"/"&amp;B13&amp;"_"&amp;E13&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T52.dbf</v>
       </c>
       <c r="G13">
@@ -6815,7 +6818,7 @@
         <v>544</v>
       </c>
       <c r="F14" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A14&amp;"/"&amp;B14&amp;"_"&amp;E14&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T53.dbf</v>
       </c>
       <c r="G14">
@@ -6842,7 +6845,7 @@
         <v>545</v>
       </c>
       <c r="F15" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A15&amp;"/"&amp;B15&amp;"_"&amp;E15&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T54.dbf</v>
       </c>
       <c r="G15">
@@ -6869,7 +6872,7 @@
         <v>546</v>
       </c>
       <c r="F16" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A16&amp;"/"&amp;B16&amp;"_"&amp;E16&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T55.dbf</v>
       </c>
       <c r="G16">
@@ -6896,7 +6899,7 @@
         <v>547</v>
       </c>
       <c r="F17" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A17&amp;"/"&amp;B17&amp;"_"&amp;E17&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T56.dbf</v>
       </c>
       <c r="G17">
@@ -6923,7 +6926,7 @@
         <v>548</v>
       </c>
       <c r="F18" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A18&amp;"/"&amp;B18&amp;"_"&amp;E18&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T57.dbf</v>
       </c>
       <c r="G18">
@@ -6950,7 +6953,7 @@
         <v>549</v>
       </c>
       <c r="F19" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A19&amp;"/"&amp;B19&amp;"_"&amp;E19&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T58.dbf</v>
       </c>
       <c r="G19">
@@ -6977,7 +6980,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A20&amp;"/"&amp;B20&amp;"_"&amp;E20&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T59.dbf</v>
       </c>
       <c r="G20">
@@ -7004,7 +7007,7 @@
         <v>550</v>
       </c>
       <c r="F21" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A21&amp;"/"&amp;B21&amp;"_"&amp;E21&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T77.dbf</v>
       </c>
       <c r="G21">
@@ -7031,7 +7034,7 @@
         <v>551</v>
       </c>
       <c r="F22" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A22&amp;"/"&amp;B22&amp;"_"&amp;E22&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T78.dbf</v>
       </c>
       <c r="G22">
@@ -7058,7 +7061,7 @@
         <v>552</v>
       </c>
       <c r="F23" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A23&amp;"/"&amp;B23&amp;"_"&amp;E23&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T79.dbf</v>
       </c>
       <c r="G23">
@@ -7085,7 +7088,7 @@
         <v>553</v>
       </c>
       <c r="F24" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A24&amp;"/"&amp;B24&amp;"_"&amp;E24&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T80.dbf</v>
       </c>
       <c r="G24">
@@ -7112,7 +7115,7 @@
         <v>554</v>
       </c>
       <c r="F25" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A25&amp;"/"&amp;B25&amp;"_"&amp;E25&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T81.dbf</v>
       </c>
       <c r="G25">
@@ -7139,7 +7142,7 @@
         <v>555</v>
       </c>
       <c r="F26" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A26&amp;"/"&amp;B26&amp;"_"&amp;E26&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T82.dbf</v>
       </c>
       <c r="G26">
@@ -7166,7 +7169,7 @@
         <v>556</v>
       </c>
       <c r="F27" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A27&amp;"/"&amp;B27&amp;"_"&amp;E27&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T83.dbf</v>
       </c>
       <c r="G27">
@@ -7193,7 +7196,7 @@
         <v>557</v>
       </c>
       <c r="F28" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A28&amp;"/"&amp;B28&amp;"_"&amp;E28&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T84.dbf</v>
       </c>
       <c r="G28">
@@ -7220,7 +7223,7 @@
         <v>349</v>
       </c>
       <c r="F29" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A29&amp;"/"&amp;B29&amp;"_"&amp;E29&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T116.dbf</v>
       </c>
       <c r="G29">
@@ -7244,7 +7247,7 @@
         <v>558</v>
       </c>
       <c r="F30" t="str">
-        <f>"https://www.insee.fr/fr/statistiques/fichier/"&amp;A30&amp;"/"&amp;B30&amp;"_"&amp;E30&amp;".dbf"</f>
+        <f t="shared" si="0"/>
         <v>https://www.insee.fr/fr/statistiques/fichier/2659830/ENSP_T118.dbf</v>
       </c>
       <c r="G30">
